--- a/data/excel/२०२४/०३/०२.xlsx
+++ b/data/excel/२०२४/०३/०२.xlsx
@@ -16,6 +16,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
+    <t>Max Price</t>
+  </si>
+  <si>
+    <t>Min Price</t>
+  </si>
+  <si>
+    <t>Avg Price</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -25,15 +34,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Max Price</t>
-  </si>
-  <si>
-    <t>Min Price</t>
-  </si>
-  <si>
-    <t>Avg Price</t>
-  </si>
-  <si>
     <t>५०.००</t>
   </si>
   <si>
@@ -64,6 +64,9 @@
     <t>६५.००</t>
   </si>
   <si>
+    <t>गोलभेडा सानो(लोकल)</t>
+  </si>
+  <si>
     <t>२५.००</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
     <t>२२.५०</t>
   </si>
   <si>
-    <t>गोलभेडा सानो(लोकल)</t>
-  </si>
-  <si>
     <t>२७.५०</t>
   </si>
   <si>
@@ -88,19 +88,22 @@
     <t>३०.००</t>
   </si>
   <si>
+    <t>गोलभेडा सानो(तराई)</t>
+  </si>
+  <si>
     <t>३५.००</t>
   </si>
   <si>
-    <t>गोलभेडा सानो(तराई)</t>
+    <t>आलु रातो</t>
+  </si>
+  <si>
+    <t>३२.००</t>
   </si>
   <si>
     <t>३३.५०</t>
   </si>
   <si>
-    <t>आलु रातो</t>
-  </si>
-  <si>
-    <t>३२.००</t>
+    <t>३६.००</t>
   </si>
   <si>
     <t>आलु रातो(भारतीय)</t>
@@ -109,9 +112,6 @@
     <t>३८.००</t>
   </si>
   <si>
-    <t>३६.००</t>
-  </si>
-  <si>
     <t>प्याज सुकेको (भारतीय)</t>
   </si>
   <si>
@@ -130,18 +130,18 @@
     <t>४०.००</t>
   </si>
   <si>
+    <t>२८.३३</t>
+  </si>
+  <si>
     <t>गाजर(तराई)</t>
   </si>
   <si>
-    <t>२८.३३</t>
+    <t>३२.५०</t>
   </si>
   <si>
     <t>बन्दा(लोकल)</t>
   </si>
   <si>
-    <t>३२.५०</t>
-  </si>
-  <si>
     <t>बन्दा(नरिवल)</t>
   </si>
   <si>
@@ -181,6 +181,9 @@
     <t>भन्टा डल्लो</t>
   </si>
   <si>
+    <t>मटरकोशा</t>
+  </si>
+  <si>
     <t>१२०.००</t>
   </si>
   <si>
@@ -190,7 +193,7 @@
     <t>११५.००</t>
   </si>
   <si>
-    <t>मटरकोशा</t>
+    <t>१७०.००</t>
   </si>
   <si>
     <t>घिउ सिमी(लोकल)</t>
@@ -202,9 +205,6 @@
     <t>१६०.००</t>
   </si>
   <si>
-    <t>१७०.००</t>
-  </si>
-  <si>
     <t>घिउ सिमी(हाइब्रीड)</t>
   </si>
   <si>
@@ -226,27 +226,27 @@
     <t>१०६.६७</t>
   </si>
   <si>
+    <t>१२५.००</t>
+  </si>
+  <si>
     <t>तितो करेला</t>
   </si>
   <si>
-    <t>१२५.००</t>
-  </si>
-  <si>
     <t>लौका</t>
   </si>
   <si>
+    <t>परवर(तराई)</t>
+  </si>
+  <si>
+    <t>३२०.००</t>
+  </si>
+  <si>
     <t>३००.००</t>
   </si>
   <si>
     <t>३१०.००</t>
   </si>
   <si>
-    <t>परवर(तराई)</t>
-  </si>
-  <si>
-    <t>३२०.००</t>
-  </si>
-  <si>
     <t>घिरौला</t>
   </si>
   <si>
@@ -265,30 +265,30 @@
     <t>भिण्डी</t>
   </si>
   <si>
+    <t>६३.३३</t>
+  </si>
+  <si>
     <t>सखरखण्ड</t>
   </si>
   <si>
-    <t>६३.३३</t>
-  </si>
-  <si>
     <t>बरेला</t>
   </si>
   <si>
+    <t>पिंडालू</t>
+  </si>
+  <si>
     <t>८६.६७</t>
   </si>
   <si>
-    <t>पिंडालू</t>
-  </si>
-  <si>
     <t>स्कूस</t>
   </si>
   <si>
+    <t>रायो साग</t>
+  </si>
+  <si>
     <t>४६.६७</t>
   </si>
   <si>
-    <t>रायो साग</t>
-  </si>
-  <si>
     <t>पालूगो साग</t>
   </si>
   <si>
@@ -352,15 +352,15 @@
     <t>चुकुन्दर</t>
   </si>
   <si>
+    <t>सजिवन</t>
+  </si>
+  <si>
     <t>२००.००</t>
   </si>
   <si>
     <t>१९०.००</t>
   </si>
   <si>
-    <t>सजिवन</t>
-  </si>
-  <si>
     <t>रातो बन्दा</t>
   </si>
   <si>
@@ -370,18 +370,18 @@
     <t>ग्याठ कोबी</t>
   </si>
   <si>
+    <t>सेलरी</t>
+  </si>
+  <si>
     <t>९६.६७</t>
   </si>
   <si>
-    <t>सेलरी</t>
+    <t>पार्सले</t>
   </si>
   <si>
     <t>१७५.००</t>
   </si>
   <si>
-    <t>पार्सले</t>
-  </si>
-  <si>
     <t>सौफको साग</t>
   </si>
   <si>
@@ -394,24 +394,24 @@
     <t>३७५.००</t>
   </si>
   <si>
+    <t>७५.००</t>
+  </si>
+  <si>
     <t>गान्टे मूला</t>
   </si>
   <si>
-    <t>७५.००</t>
-  </si>
-  <si>
     <t>१५६.६७</t>
   </si>
   <si>
     <t>इमली</t>
   </si>
   <si>
+    <t>तामा</t>
+  </si>
+  <si>
     <t>१०५.००</t>
   </si>
   <si>
-    <t>तामा</t>
-  </si>
-  <si>
     <t>तोफु</t>
   </si>
   <si>
@@ -424,45 +424,45 @@
     <t>२७५.००</t>
   </si>
   <si>
+    <t>स्याउ(झोले)</t>
+  </si>
+  <si>
+    <t>२२०.००</t>
+  </si>
+  <si>
     <t>२१०.००</t>
   </si>
   <si>
-    <t>स्याउ(झोले)</t>
-  </si>
-  <si>
-    <t>२२०.००</t>
+    <t>३२५.००</t>
   </si>
   <si>
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
-    <t>३२५.००</t>
-  </si>
-  <si>
     <t>केरा</t>
   </si>
   <si>
     <t>दर्जन</t>
   </si>
   <si>
+    <t>२८०.००</t>
+  </si>
+  <si>
+    <t>२४०.००</t>
+  </si>
+  <si>
+    <t>२६०.००</t>
+  </si>
+  <si>
     <t>कागती</t>
   </si>
   <si>
-    <t>२८०.००</t>
-  </si>
-  <si>
-    <t>२४०.००</t>
-  </si>
-  <si>
-    <t>२६०.००</t>
+    <t>२९०.००</t>
   </si>
   <si>
     <t>अनार</t>
   </si>
   <si>
-    <t>२९०.००</t>
-  </si>
-  <si>
     <t>अंगुर(हरियो)</t>
   </si>
   <si>
@@ -484,12 +484,12 @@
     <t>१४५.००</t>
   </si>
   <si>
+    <t>२३५.००</t>
+  </si>
+  <si>
     <t>जुनार</t>
   </si>
   <si>
-    <t>२३५.००</t>
-  </si>
-  <si>
     <t>भुई कटहर</t>
   </si>
   <si>
@@ -529,30 +529,30 @@
     <t>लप्सी</t>
   </si>
   <si>
+    <t>उखु</t>
+  </si>
+  <si>
     <t>प्रति वटा</t>
   </si>
   <si>
-    <t>उखु</t>
-  </si>
-  <si>
     <t>किनु</t>
   </si>
   <si>
     <t>स्ट्रबेरी भुईऐसेलु</t>
   </si>
   <si>
+    <t>५००.००</t>
+  </si>
+  <si>
+    <t>५५०.००</t>
+  </si>
+  <si>
     <t>किवि</t>
   </si>
   <si>
     <t>६००.००</t>
   </si>
   <si>
-    <t>५००.००</t>
-  </si>
-  <si>
-    <t>५५०.००</t>
-  </si>
-  <si>
     <t>आभोकाडो</t>
   </si>
   <si>
@@ -586,22 +586,22 @@
     <t>हरियो धनिया</t>
   </si>
   <si>
+    <t>लसुन सुकेको चाइनिज</t>
+  </si>
+  <si>
     <t>२३०.००</t>
   </si>
   <si>
-    <t>लसुन सुकेको चाइनिज</t>
-  </si>
-  <si>
     <t>छ्यापी हरियो</t>
   </si>
   <si>
+    <t>३६०.००</t>
+  </si>
+  <si>
     <t>ताजा माछा(रहु)</t>
   </si>
   <si>
     <t>३७०.००</t>
-  </si>
-  <si>
-    <t>३६०.००</t>
   </si>
   <si>
     <t>२७०.००</t>
@@ -928,22 +928,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -991,19 +991,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1020,7 +1020,7 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1031,16 +1031,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -1051,19 +1051,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1071,19 +1071,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1123,7 +1123,7 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1140,10 +1140,10 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -1151,19 +1151,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -1180,10 +1180,10 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -1200,7 +1200,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -1237,13 +1237,13 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -1280,7 +1280,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -1297,13 +1297,13 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -1351,19 +1351,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
         <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -1371,19 +1371,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24">
@@ -1397,13 +1397,13 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
@@ -1420,7 +1420,7 @@
         <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
         <v>66</v>
@@ -1437,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
         <v>68</v>
@@ -1451,7 +1451,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1460,10 +1460,10 @@
         <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -1491,19 +1491,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
         <v>76</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -1520,7 +1520,7 @@
         <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>66</v>
@@ -1617,13 +1617,13 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
@@ -1631,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -1643,7 +1643,7 @@
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37">
@@ -1671,7 +1671,7 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -1683,7 +1683,7 @@
         <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
@@ -1711,7 +1711,7 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -1723,7 +1723,7 @@
         <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
@@ -1783,7 +1783,7 @@
         <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -1823,7 +1823,7 @@
         <v>52</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
@@ -1863,7 +1863,7 @@
         <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48">
@@ -1877,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
         <v>99</v>
@@ -1991,19 +1991,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" t="s">
         <v>114</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E54" t="s">
-        <v>60</v>
-      </c>
-      <c r="F54" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="55">
@@ -2043,7 +2043,7 @@
         <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57">
@@ -2071,7 +2071,7 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -2083,7 +2083,7 @@
         <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
@@ -2091,19 +2091,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>100</v>
       </c>
       <c r="F59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
@@ -2151,7 +2151,7 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
@@ -2163,7 +2163,7 @@
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
@@ -2177,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
         <v>100</v>
@@ -2191,19 +2191,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E64" t="s">
         <v>68</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -2217,13 +2217,13 @@
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
         <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66">
@@ -2237,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
         <v>134</v>
@@ -2251,19 +2251,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
         <v>137</v>
       </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" t="s">
         <v>138</v>
-      </c>
-      <c r="E67" t="s">
-        <v>112</v>
-      </c>
-      <c r="F67" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="68">
@@ -2271,7 +2271,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -2280,10 +2280,10 @@
         <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69">
@@ -2300,7 +2300,7 @@
         <v>99</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69" t="s">
         <v>65</v>
@@ -2311,19 +2311,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
         <v>143</v>
       </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>144</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>145</v>
-      </c>
-      <c r="F70" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="71">
@@ -2331,19 +2331,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" t="s">
         <v>147</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" t="s">
-        <v>144</v>
-      </c>
-      <c r="F71" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="72">
@@ -2360,7 +2360,7 @@
         <v>99</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72" t="s">
         <v>65</v>
@@ -2377,13 +2377,13 @@
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74">
@@ -2397,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E74" t="s">
         <v>100</v>
@@ -2423,7 +2423,7 @@
         <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
@@ -2471,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -2480,10 +2480,10 @@
         <v>134</v>
       </c>
       <c r="E78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79">
@@ -2497,7 +2497,7 @@
         <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E79" t="s">
         <v>99</v>
@@ -2517,13 +2517,13 @@
         <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E80" t="s">
         <v>68</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81">
@@ -2557,10 +2557,10 @@
         <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F82" t="s">
         <v>162</v>
@@ -2600,10 +2600,10 @@
         <v>134</v>
       </c>
       <c r="E84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85">
@@ -2657,7 +2657,7 @@
         <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E87" t="s">
         <v>100</v>
@@ -2680,7 +2680,7 @@
         <v>99</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F88" t="s">
         <v>65</v>
@@ -2691,10 +2691,10 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" t="s">
         <v>172</v>
-      </c>
-      <c r="C89" t="s">
-        <v>171</v>
       </c>
       <c r="D89" t="s">
         <v>33</v>
@@ -2723,7 +2723,7 @@
         <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
@@ -2737,10 +2737,10 @@
         <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F91" t="s">
         <v>134</v>
@@ -2751,19 +2751,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" t="s">
+        <v>178</v>
+      </c>
+      <c r="E92" t="s">
+        <v>175</v>
+      </c>
+      <c r="F92" t="s">
         <v>176</v>
-      </c>
-      <c r="E92" t="s">
-        <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="93">
@@ -2777,13 +2777,13 @@
         <v>180</v>
       </c>
       <c r="D93" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" t="s">
+        <v>175</v>
+      </c>
+      <c r="F93" t="s">
         <v>176</v>
-      </c>
-      <c r="E93" t="s">
-        <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="94">
@@ -2817,13 +2817,13 @@
         <v>10</v>
       </c>
       <c r="D95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" t="s">
+        <v>113</v>
+      </c>
+      <c r="F95" t="s">
         <v>138</v>
-      </c>
-      <c r="E95" t="s">
-        <v>112</v>
-      </c>
-      <c r="F95" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="96">
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F97" t="s">
         <v>162</v>
@@ -2877,10 +2877,10 @@
         <v>22</v>
       </c>
       <c r="D98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F98" t="s">
         <v>162</v>
@@ -2903,7 +2903,7 @@
         <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
@@ -2917,13 +2917,13 @@
         <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E100" t="s">
         <v>68</v>
       </c>
       <c r="F100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101">
@@ -2940,7 +2940,7 @@
         <v>65</v>
       </c>
       <c r="E101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F101" t="s">
         <v>66</v>
@@ -2971,19 +2971,19 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" t="s">
         <v>191</v>
-      </c>
-      <c r="C103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" t="s">
-        <v>145</v>
-      </c>
-      <c r="E103" t="s">
-        <v>138</v>
-      </c>
-      <c r="F103" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="104">
@@ -2997,13 +2997,13 @@
         <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E104" t="s">
         <v>68</v>
       </c>
       <c r="F104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105">
@@ -3011,19 +3011,19 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C105" t="s">
         <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E105" t="s">
         <v>124</v>
       </c>
       <c r="F105" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106">
@@ -3037,10 +3037,10 @@
         <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F106" t="s">
         <v>196</v>
@@ -3060,10 +3060,10 @@
         <v>124</v>
       </c>
       <c r="E107" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
@@ -3077,13 +3077,13 @@
         <v>22</v>
       </c>
       <c r="D108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E108" t="s">
         <v>124</v>
       </c>
       <c r="F108" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="109">
